--- a/biology/Histoire de la zoologie et de la botanique/Eduard_Wilhelm_Steinheil/Eduard_Wilhelm_Steinheil.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eduard_Wilhelm_Steinheil/Eduard_Wilhelm_Steinheil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eduard Wilhelm Steinheil (mort en 1879) est un entomologiste munichois du XIXe siècle.
-Il est le fils d'Édouard Steinheil, industriel d'origine alsacienne, directeur de l'observatoire astronomique de Munich[1]. En 1872-1873, il prospecte la Nouvelle-Grenade[2]. En 1877, il fait la connaissance d'Auguste Forel à Munich et, l'année suivante, les deux hommes partent en expédition dans les tropiques. Steinheil meurt de la fièvre jaune à Saint-Thomas en 1879. Rentré seul à Munich, Forel épouse la fille de son compagnon quelques années plus tard[1].
-La collection d'insectes de Steinheil, récoltés principalement en Amérique du Sud, a été acquise en 1882, par l'entomologiste français René Oberthür[3].
+Il est le fils d'Édouard Steinheil, industriel d'origine alsacienne, directeur de l'observatoire astronomique de Munich. En 1872-1873, il prospecte la Nouvelle-Grenade. En 1877, il fait la connaissance d'Auguste Forel à Munich et, l'année suivante, les deux hommes partent en expédition dans les tropiques. Steinheil meurt de la fièvre jaune à Saint-Thomas en 1879. Rentré seul à Munich, Forel épouse la fille de son compagnon quelques années plus tard.
+La collection d'insectes de Steinheil, récoltés principalement en Amérique du Sud, a été acquise en 1882, par l'entomologiste français René Oberthür.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(it) « Symbolae ad historiam Coleopterorum Argentiniae meridionalis, ossia elenco dei coleotteri raccolti dal Prof.Strobel... », Atti della Società Italiana di Scienze Naturali e del Museo Civico di Storia Naturale in Milano, vol. 12,‎ 1869, p. 238-260</t>
         </is>
